--- a/medicine/Mort/Balsamaire/Balsamaire.xlsx
+++ b/medicine/Mort/Balsamaire/Balsamaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le balsamaire est un petit récipient permettant de contenir une essence.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de balsamaire vient du mot latin balsanum qui a donné en français « baume », « balsamique » et « baumier », qui désignent des résines odoriférantes.
 Ce récipient trouve son origine dans l'Antiquité romaine. Il était en particulier utilisé dans les rites funéraires romains.
@@ -543,17 +557,19 @@
           <t>Matériaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En argile :
 En verre, de 5 à 15 centimètres de haut de différentes formes :
-Les balsamaires du type Isings 68 à panse ovoïde dotée d’une large embouchure dont on a trouvé des exemplaires Ier et IIe siècles. Celui d'une des maisons de Pompéi est en verre jaune sombre haut de 7 cm avec un diamètre d'embouchure de 6 cm[1] ;
+Les balsamaires du type Isings 68 à panse ovoïde dotée d’une large embouchure dont on a trouvé des exemplaires Ier et IIe siècles. Celui d'une des maisons de Pompéi est en verre jaune sombre haut de 7 cm avec un diamètre d'embouchure de 6 cm ;
 Balsamaire à panse campaniforme, fond convexe et goulot vertical détaché par une constriction nette comme celui trouvé à l'auberge Gaviani de Pompéi ;
 D'autres sont hauts de plus de 10 cm, étroits et presque tubulaires avec ou sans fond plat formant pied et alors nommés balsamaires de forme chandelier.
 En bronze :
-Balsamaire en forme de buste d’Antinoüs, grec datant du IIe siècle, haut de 19,7 cm[2] ;
+Balsamaire en forme de buste d’Antinoüs, grec datant du IIe siècle, haut de 19,7 cm ;
 Balsamaires anthropomorphes ;
-Balsamaire en bronze datant du IVe siècle découvert à Malaga ; ce petit vase haut de 7,5 cm, de forme globulaire avec 8,1 cm de diamètre est décoré de scènes de chasse[3].</t>
+Balsamaire en bronze datant du IVe siècle découvert à Malaga ; ce petit vase haut de 7,5 cm, de forme globulaire avec 8,1 cm de diamètre est décoré de scènes de chasse.</t>
         </is>
       </c>
     </row>
